--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-11T08:55:13+00:00</t>
+    <t>2023-11-11T12:09:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-11T12:09:57+00:00</t>
+    <t>2023-11-11T12:36:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-11T12:36:16+00:00</t>
+    <t>2023-11-11T13:02:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
